--- a/tools/word_helper/laudos/geccor/data.xlsx
+++ b/tools/word_helper/laudos/geccor/data.xlsx
@@ -5,42 +5,36 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projetos\tests\laudo\code\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programas\sinftools\tools\word_helper\laudos\geccor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13632C59-7BB2-4417-9771-5968414A4DE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F344493-BC36-4627-B356-4C18318720E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1305" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="principal" sheetId="1" r:id="rId1"/>
     <sheet name="objetos" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="model_name">#REF!</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>pericia</t>
   </si>
   <si>
-    <t>123/123456/2019</t>
-  </si>
-  <si>
     <t>ocorrencia_odin</t>
   </si>
   <si>
-    <t>123/2019</t>
-  </si>
-  <si>
     <t>oficio</t>
   </si>
   <si>
-    <t>3216/2020</t>
-  </si>
-  <si>
     <t>autoridade</t>
   </si>
   <si>
@@ -81,6 +75,12 @@
   </si>
   <si>
     <t>data_odin</t>
+  </si>
+  <si>
+    <t>x/x/x</t>
+  </si>
+  <si>
+    <t>x/x</t>
   </si>
 </sst>
 </file>
@@ -411,13 +411,13 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="74.28515625" customWidth="1"/>
+    <col min="2" max="2" width="66.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -425,57 +425,63 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2">
-        <v>44039</v>
+        <v>47484</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="B7" s="2">
+        <v>47484</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
+      </c>
+      <c r="B8" s="2">
+        <v>47484</v>
       </c>
     </row>
   </sheetData>
@@ -504,25 +510,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/tools/word_helper/laudos/geccor/data.xlsx
+++ b/tools/word_helper/laudos/geccor/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programas\sinftools\tools\word_helper\laudos\geccor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dropbox\Dropbox\pericias\A\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F344493-BC36-4627-B356-4C18318720E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE2492D8-495B-41F6-B56D-9CF49156C52D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="principal" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>pericia</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>x/x</t>
+  </si>
+  <si>
+    <t>rai</t>
   </si>
 </sst>
 </file>
@@ -408,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -482,6 +485,11 @@
       </c>
       <c r="B8" s="2">
         <v>47484</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
